--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H2">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I2">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J2">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N2">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O2">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P2">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q2">
-        <v>0.3163935080210001</v>
+        <v>0.2738243143166667</v>
       </c>
       <c r="R2">
-        <v>2.847541572189</v>
+        <v>2.46441882885</v>
       </c>
       <c r="S2">
-        <v>3.075267762915898E-05</v>
+        <v>2.331061745652211E-05</v>
       </c>
       <c r="T2">
-        <v>3.083179602175742E-05</v>
+        <v>2.345623132765966E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H3">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I3">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J3">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N3">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O3">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P3">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q3">
-        <v>62.39063656583635</v>
+        <v>93.39077639965332</v>
       </c>
       <c r="R3">
-        <v>561.5157290925271</v>
+        <v>840.51698759688</v>
       </c>
       <c r="S3">
-        <v>0.006064217769158003</v>
+        <v>0.007950340962425653</v>
       </c>
       <c r="T3">
-        <v>0.00607981937523759</v>
+        <v>0.008000004165322852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H4">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I4">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J4">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>37.20927366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N4">
-        <v>111.627821</v>
+        <v>0.108375</v>
       </c>
       <c r="O4">
-        <v>0.5613276452965987</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P4">
-        <v>0.5613276452965988</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q4">
-        <v>80.24027308194636</v>
+        <v>0.09999228406249999</v>
       </c>
       <c r="R4">
-        <v>722.162457737517</v>
+        <v>0.599953704375</v>
       </c>
       <c r="S4">
-        <v>0.007799158922062953</v>
+        <v>8.512326190614544E-06</v>
       </c>
       <c r="T4">
-        <v>0.007819224066470032</v>
+        <v>5.710333288710192E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.009804666666666</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H5">
-        <v>9.029413999999999</v>
+        <v>5.535905</v>
       </c>
       <c r="I5">
-        <v>0.01939226083762105</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J5">
-        <v>0.01944215192433629</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.146719</v>
+        <v>2.203488</v>
       </c>
       <c r="N5">
-        <v>0.440157</v>
+        <v>6.610464</v>
       </c>
       <c r="O5">
-        <v>0.002213357657235064</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P5">
-        <v>0.002213357657235064</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q5">
-        <v>0.4415955308886667</v>
+        <v>4.06610007888</v>
       </c>
       <c r="R5">
-        <v>3.974359777998</v>
+        <v>36.59490070992</v>
       </c>
       <c r="S5">
-        <v>4.29220090160482E-05</v>
+        <v>0.0003461464103917851</v>
       </c>
       <c r="T5">
-        <v>4.303243583485716E-05</v>
+        <v>0.0003483086748144898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>9.029413999999999</v>
       </c>
       <c r="I6">
-        <v>0.01939226083762105</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J6">
-        <v>0.01944215192433629</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>28.93198366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N6">
-        <v>86.795951</v>
+        <v>0.44517</v>
       </c>
       <c r="O6">
-        <v>0.4364589970461662</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P6">
-        <v>0.4364589970461662</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q6">
-        <v>87.0796194558571</v>
+        <v>0.4466249144866666</v>
       </c>
       <c r="R6">
-        <v>783.7165751027139</v>
+        <v>4.01962423038</v>
       </c>
       <c r="S6">
-        <v>0.00846392671564573</v>
+        <v>3.802110325422224E-05</v>
       </c>
       <c r="T6">
-        <v>0.008485702129315008</v>
+        <v>3.825860876174875E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>9.029413999999999</v>
       </c>
       <c r="I7">
-        <v>0.01939226083762105</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J7">
-        <v>0.01944215192433629</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>37.20927366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N7">
-        <v>111.627821</v>
+        <v>151.830096</v>
       </c>
       <c r="O7">
-        <v>0.5613276452965987</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P7">
-        <v>0.5613276452965988</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q7">
-        <v>111.9926455252104</v>
+        <v>152.3263104937493</v>
       </c>
       <c r="R7">
-        <v>1007.933809726894</v>
+        <v>1370.936794443744</v>
       </c>
       <c r="S7">
-        <v>0.01088541211295927</v>
+        <v>0.01296751298855375</v>
       </c>
       <c r="T7">
-        <v>0.01091341735918643</v>
+        <v>0.01304851683878688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.649016</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H8">
-        <v>241.947048</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I8">
-        <v>0.5196240048034592</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J8">
-        <v>0.5209608580203196</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.146719</v>
+        <v>0.0541875</v>
       </c>
       <c r="N8">
-        <v>0.440157</v>
+        <v>0.108375</v>
       </c>
       <c r="O8">
-        <v>0.002213357657235064</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P8">
-        <v>0.002213357657235064</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q8">
-        <v>11.832742978504</v>
+        <v>0.163093790375</v>
       </c>
       <c r="R8">
-        <v>106.494686806536</v>
+        <v>0.97856274225</v>
       </c>
       <c r="S8">
-        <v>0.001150113769914886</v>
+        <v>1.388414672544085E-05</v>
       </c>
       <c r="T8">
-        <v>0.001153072704219023</v>
+        <v>9.313917659668265E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.649016</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H9">
-        <v>241.947048</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I9">
-        <v>0.5196240048034592</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J9">
-        <v>0.5209608580203196</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>28.93198366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N9">
-        <v>86.795951</v>
+        <v>6.610464</v>
       </c>
       <c r="O9">
-        <v>0.4364589970461662</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P9">
-        <v>0.4364589970461662</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q9">
-        <v>2333.336013644739</v>
+        <v>6.632068465343999</v>
       </c>
       <c r="R9">
-        <v>21000.02412280265</v>
+        <v>59.688616188096</v>
       </c>
       <c r="S9">
-        <v>0.22679457197763</v>
+        <v>0.0005645868641245344</v>
       </c>
       <c r="T9">
-        <v>0.2273780535918589</v>
+        <v>0.0005681136552544528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.649016</v>
+        <v>119.514145</v>
       </c>
       <c r="H10">
-        <v>241.947048</v>
+        <v>358.542435</v>
       </c>
       <c r="I10">
-        <v>0.5196240048034592</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J10">
-        <v>0.5209608580203196</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>37.20927366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N10">
-        <v>111.627821</v>
+        <v>0.44517</v>
       </c>
       <c r="O10">
-        <v>0.5613276452965987</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P10">
-        <v>0.5613276452965988</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q10">
-        <v>3000.891307291379</v>
+        <v>17.73470397655</v>
       </c>
       <c r="R10">
-        <v>27008.02176562241</v>
+        <v>159.61233578895</v>
       </c>
       <c r="S10">
-        <v>0.2916793190559143</v>
+        <v>0.001509752342971013</v>
       </c>
       <c r="T10">
-        <v>0.2924297317242417</v>
+        <v>0.00151918327647284</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.19484</v>
+        <v>119.514145</v>
       </c>
       <c r="H11">
-        <v>2.38968</v>
+        <v>358.542435</v>
       </c>
       <c r="I11">
-        <v>0.007698389598446743</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J11">
-        <v>0.005145463660271635</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.146719</v>
+        <v>50.610032</v>
       </c>
       <c r="N11">
-        <v>0.440157</v>
+        <v>151.830096</v>
       </c>
       <c r="O11">
-        <v>0.002213357657235064</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P11">
-        <v>0.002213357657235064</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q11">
-        <v>0.17530572996</v>
+        <v>6048.61470290264</v>
       </c>
       <c r="R11">
-        <v>1.05183437976</v>
+        <v>54437.53232612376</v>
       </c>
       <c r="S11">
-        <v>1.703928956610087E-05</v>
+        <v>0.5149175442404336</v>
       </c>
       <c r="T11">
-        <v>1.138875139248698E-05</v>
+        <v>0.5181340672292964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.19484</v>
+        <v>119.514145</v>
       </c>
       <c r="H12">
-        <v>2.38968</v>
+        <v>358.542435</v>
       </c>
       <c r="I12">
-        <v>0.007698389598446743</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J12">
-        <v>0.005145463660271635</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>28.93198366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N12">
-        <v>86.795951</v>
+        <v>0.108375</v>
       </c>
       <c r="O12">
-        <v>0.4364589970461662</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P12">
-        <v>0.4364589970461662</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q12">
-        <v>34.56909136428</v>
+        <v>6.4761727321875</v>
       </c>
       <c r="R12">
-        <v>207.41454818568</v>
+        <v>38.857036393125</v>
       </c>
       <c r="S12">
-        <v>0.003360031403008704</v>
+        <v>0.0005513154867898226</v>
       </c>
       <c r="T12">
-        <v>0.002245783908499653</v>
+        <v>0.0003698395839516231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.19484</v>
+        <v>119.514145</v>
       </c>
       <c r="H13">
-        <v>2.38968</v>
+        <v>358.542435</v>
       </c>
       <c r="I13">
-        <v>0.007698389598446743</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J13">
-        <v>0.005145463660271635</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>37.20927366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N13">
-        <v>111.627821</v>
+        <v>6.610464</v>
       </c>
       <c r="O13">
-        <v>0.5613276452965987</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P13">
-        <v>0.5613276452965988</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q13">
-        <v>44.45912854788</v>
+        <v>263.34798433776</v>
       </c>
       <c r="R13">
-        <v>266.75477128728</v>
+        <v>2370.13185903984</v>
       </c>
       <c r="S13">
-        <v>0.004321318905871938</v>
+        <v>0.02241876926146311</v>
       </c>
       <c r="T13">
-        <v>0.002888291000379496</v>
+        <v>0.02255881204601783</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.19636666666666</v>
+        <v>3.9013105</v>
       </c>
       <c r="H14">
-        <v>204.5891</v>
+        <v>7.802621</v>
       </c>
       <c r="I14">
-        <v>0.4393912153916231</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="J14">
-        <v>0.4405216511573432</v>
+        <v>0.01180769842159481</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N14">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O14">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P14">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q14">
-        <v>10.00570272096667</v>
+        <v>0.578915465095</v>
       </c>
       <c r="R14">
-        <v>90.0513244887</v>
+        <v>3.47349279057</v>
       </c>
       <c r="S14">
-        <v>0.0009725299111088701</v>
+        <v>4.928297540037972E-05</v>
       </c>
       <c r="T14">
-        <v>0.0009750319697669391</v>
+        <v>3.306055344845246E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.19636666666666</v>
+        <v>3.9013105</v>
       </c>
       <c r="H15">
-        <v>204.5891</v>
+        <v>7.802621</v>
       </c>
       <c r="I15">
-        <v>0.4393912153916231</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="J15">
-        <v>0.4405216511573432</v>
+        <v>0.01180769842159481</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N15">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O15">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P15">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q15">
-        <v>1973.056166526011</v>
+        <v>197.445449246936</v>
       </c>
       <c r="R15">
-        <v>17757.5054987341</v>
+        <v>1184.672695481616</v>
       </c>
       <c r="S15">
-        <v>0.1917762491807238</v>
+        <v>0.01680849762159465</v>
       </c>
       <c r="T15">
-        <v>0.1922696380412551</v>
+        <v>0.01127566323851937</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.9013105</v>
+      </c>
+      <c r="H16">
+        <v>7.802621</v>
+      </c>
+      <c r="I16">
+        <v>0.01760759504627423</v>
+      </c>
+      <c r="J16">
+        <v>0.01180769842159481</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0541875</v>
+      </c>
+      <c r="N16">
+        <v>0.108375</v>
+      </c>
+      <c r="O16">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P16">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q16">
+        <v>0.21140226271875</v>
+      </c>
+      <c r="R16">
+        <v>0.845609050875</v>
+      </c>
+      <c r="S16">
+        <v>1.799663878636078E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.048470202340757E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.9013105</v>
+      </c>
+      <c r="H17">
+        <v>7.802621</v>
+      </c>
+      <c r="I17">
+        <v>0.01760759504627423</v>
+      </c>
+      <c r="J17">
+        <v>0.01180769842159481</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.203488</v>
+      </c>
+      <c r="N17">
+        <v>6.610464</v>
+      </c>
+      <c r="O17">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P17">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q17">
+        <v>8.596490871024001</v>
+      </c>
+      <c r="R17">
+        <v>51.57894522614401</v>
+      </c>
+      <c r="S17">
+        <v>0.0007318178104928359</v>
+      </c>
+      <c r="T17">
+        <v>0.0004909261594246486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H16">
-        <v>204.5891</v>
-      </c>
-      <c r="I16">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J16">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K16">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>93.29919200000001</v>
+      </c>
+      <c r="H18">
+        <v>279.897576</v>
+      </c>
+      <c r="I18">
+        <v>0.4210827082029456</v>
+      </c>
+      <c r="J18">
+        <v>0.4235687170174501</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>37.20927366666667</v>
-      </c>
-      <c r="N16">
-        <v>111.627821</v>
-      </c>
-      <c r="O16">
-        <v>0.5613276452965987</v>
-      </c>
-      <c r="P16">
-        <v>0.5613276452965988</v>
-      </c>
-      <c r="Q16">
-        <v>2537.537270372344</v>
-      </c>
-      <c r="R16">
-        <v>22837.8354333511</v>
-      </c>
-      <c r="S16">
-        <v>0.2466424362997904</v>
-      </c>
-      <c r="T16">
-        <v>0.2472769811463212</v>
+      <c r="M18">
+        <v>0.14839</v>
+      </c>
+      <c r="N18">
+        <v>0.44517</v>
+      </c>
+      <c r="O18">
+        <v>0.002798961202302754</v>
+      </c>
+      <c r="P18">
+        <v>0.002799915128928837</v>
+      </c>
+      <c r="Q18">
+        <v>13.84466710088</v>
+      </c>
+      <c r="R18">
+        <v>124.60200390792</v>
+      </c>
+      <c r="S18">
+        <v>0.001178594163220616</v>
+      </c>
+      <c r="T18">
+        <v>0.001185956458918136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>93.29919200000001</v>
+      </c>
+      <c r="H19">
+        <v>279.897576</v>
+      </c>
+      <c r="I19">
+        <v>0.4210827082029456</v>
+      </c>
+      <c r="J19">
+        <v>0.4235687170174501</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.610032</v>
+      </c>
+      <c r="N19">
+        <v>151.830096</v>
+      </c>
+      <c r="O19">
+        <v>0.9546163219576846</v>
+      </c>
+      <c r="P19">
+        <v>0.9549416690637682</v>
+      </c>
+      <c r="Q19">
+        <v>4721.875092694144</v>
+      </c>
+      <c r="R19">
+        <v>42496.8758342473</v>
+      </c>
+      <c r="S19">
+        <v>0.4019724261446769</v>
+      </c>
+      <c r="T19">
+        <v>0.4044834175918427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>93.29919200000001</v>
+      </c>
+      <c r="H20">
+        <v>279.897576</v>
+      </c>
+      <c r="I20">
+        <v>0.4210827082029456</v>
+      </c>
+      <c r="J20">
+        <v>0.4235687170174501</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0541875</v>
+      </c>
+      <c r="N20">
+        <v>0.108375</v>
+      </c>
+      <c r="O20">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P20">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q20">
+        <v>5.0556499665</v>
+      </c>
+      <c r="R20">
+        <v>30.333899799</v>
+      </c>
+      <c r="S20">
+        <v>0.0004303866245671349</v>
+      </c>
+      <c r="T20">
+        <v>0.0002887167402009411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>93.29919200000001</v>
+      </c>
+      <c r="H21">
+        <v>279.897576</v>
+      </c>
+      <c r="I21">
+        <v>0.4210827082029456</v>
+      </c>
+      <c r="J21">
+        <v>0.4235687170174501</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>2.203488</v>
+      </c>
+      <c r="N21">
+        <v>6.610464</v>
+      </c>
+      <c r="O21">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P21">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q21">
+        <v>205.583649981696</v>
+      </c>
+      <c r="R21">
+        <v>1850.252849835264</v>
+      </c>
+      <c r="S21">
+        <v>0.01750130127048096</v>
+      </c>
+      <c r="T21">
+        <v>0.01761062622648834</v>
       </c>
     </row>
   </sheetData>
